--- a/TimeComparision.xlsx
+++ b/TimeComparision.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Lambda-Dynamodb</t>
   </si>
@@ -411,13 +411,418 @@
   </si>
   <si>
     <t>3000 files</t>
+  </si>
+  <si>
+    <r>
+      <t>0:00:0.310453999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:0.422493999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:0.399317999996</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:0.600678000003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:0.853738999998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:2.516831</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:27.492562</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:53.276782</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:01:46.651103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:03:32.420011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:06:57.453241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:13:53.579005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:4.994075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:9.109646</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:15.997989</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:00:31.478761</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:01:1.654306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0:01:53.906232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(h:m:s)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +832,14 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,11 +867,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF808080"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,16 +901,44 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5737A249-1694-4B7A-88B5-1729AE310DDC}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,244 +1247,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7790FD-2B3F-4C14-ADDF-D4475289DCE0}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="F24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="F34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="F35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="F36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="F37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="F38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
